--- a/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
@@ -429,42 +429,52 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Default green</t>
+          <t>Toyota Yaris</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Mazda MX-30</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Honda JAZZ</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Land Rover Defender</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>SEAT Leon</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>KIA Sorento</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Default Red</t>
+          <t>Honda e</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Hyundai i10</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,353 +424,357 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Car Name</t>
+          <t>Sheet Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Toyota Yaris</t>
+          <t>Default green</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Mazda MX-30</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Honda JAZZ</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Land Rover Defender</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>SEAT Leon</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>KIA Sorento</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Honda e</t>
+          <t>Default Red</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Hyundai i10</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ISUZU D-Max Crew Cab</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Audi A3</t>
+          <t>Blue</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Default green</t>
+          <t>Toyota Yaris</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>11.68831168831169</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34.41558441558442</v>
       </c>
       <c r="D2" t="n">
-        <v>17.30769230769231</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.740259740259742</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.597402597402598</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.792207792207792</v>
       </c>
       <c r="H2" t="n">
-        <v>15.13157894736842</v>
+        <v>6.493506493506493</v>
       </c>
       <c r="I2" t="n">
-        <v>20.98765432098765</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.807228915662651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Mazda MX-30</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.41558441558442</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>46.98795180722892</v>
       </c>
       <c r="D3" t="n">
-        <v>23.07692307692308</v>
+        <v>36.74698795180723</v>
       </c>
       <c r="E3" t="n">
-        <v>49.68152866242038</v>
+        <v>5.421686746987952</v>
       </c>
       <c r="F3" t="n">
-        <v>29.51807228915663</v>
+        <v>7.228915662650602</v>
       </c>
       <c r="G3" t="n">
-        <v>22.52747252747253</v>
+        <v>3.614457831325301</v>
       </c>
       <c r="H3" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.024691358024691</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.19753086419753</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.28915662650602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Honda JAZZ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.27272727272727</v>
+        <v>17.30769230769231</v>
       </c>
       <c r="C4" t="n">
-        <v>36.74698795180723</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="D4" t="n">
         <v>25.64102564102564</v>
       </c>
       <c r="E4" t="n">
-        <v>17.19745222929936</v>
+        <v>12.17948717948718</v>
       </c>
       <c r="F4" t="n">
-        <v>24.69879518072289</v>
+        <v>5.76923076923077</v>
       </c>
       <c r="G4" t="n">
-        <v>36.26373626373626</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="H4" t="n">
-        <v>19.73684210526316</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="I4" t="n">
-        <v>20.37037037037037</v>
-      </c>
-      <c r="J4" t="n">
-        <v>51.85185185185185</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25.30120481927711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Land Rover Defender</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.740259740259742</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.421686746987952</v>
+        <v>49.68152866242038</v>
       </c>
       <c r="D5" t="n">
-        <v>12.17948717948718</v>
+        <v>17.19745222929936</v>
       </c>
       <c r="E5" t="n">
         <v>22.29299363057325</v>
       </c>
       <c r="F5" t="n">
-        <v>19.27710843373494</v>
+        <v>6.369426751592357</v>
       </c>
       <c r="G5" t="n">
-        <v>16.48351648351648</v>
+        <v>4.458598726114649</v>
       </c>
       <c r="H5" t="n">
-        <v>9.868421052631579</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22.8395061728395</v>
-      </c>
-      <c r="K5" t="n">
-        <v>21.68674698795181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>SEAT Leon</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.597402597402598</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>7.228915662650602</v>
+        <v>29.51807228915663</v>
       </c>
       <c r="D6" t="n">
-        <v>5.76923076923077</v>
+        <v>24.69879518072289</v>
       </c>
       <c r="E6" t="n">
-        <v>6.369426751592357</v>
+        <v>19.27710843373494</v>
       </c>
       <c r="F6" t="n">
         <v>9.036144578313253</v>
       </c>
       <c r="G6" t="n">
-        <v>9.890109890109891</v>
+        <v>13.85542168674699</v>
       </c>
       <c r="H6" t="n">
-        <v>3.947368421052631</v>
+        <v>3.614457831325301</v>
       </c>
       <c r="I6" t="n">
-        <v>8.641975308641975</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8.641975308641975</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.65060240963855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>KIA Sorento</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.792207792207792</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.614457831325301</v>
+        <v>22.52747252747253</v>
       </c>
       <c r="D7" t="n">
-        <v>8.333333333333332</v>
+        <v>36.26373626373626</v>
       </c>
       <c r="E7" t="n">
-        <v>4.458598726114649</v>
+        <v>16.48351648351648</v>
       </c>
       <c r="F7" t="n">
-        <v>13.85542168674699</v>
+        <v>9.890109890109891</v>
       </c>
       <c r="G7" t="n">
         <v>12.63736263736264</v>
       </c>
       <c r="H7" t="n">
-        <v>9.210526315789473</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="I7" t="n">
-        <v>12.34567901234568</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.469135802469136</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.65060240963855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Default Red</t>
+          <t>Honda e</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.493506493506493</v>
+        <v>15.13157894736842</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="D8" t="n">
-        <v>7.692307692307693</v>
+        <v>19.73684210526316</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>9.868421052631579</v>
       </c>
       <c r="F8" t="n">
-        <v>3.614457831325301</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="G8" t="n">
-        <v>2.197802197802198</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H8" t="n">
         <v>5.263157894736842</v>
       </c>
       <c r="I8" t="n">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.614457831325301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Hyundai i10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>20.98765432098765</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8.024691358024691</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>12.34567901234568</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ISUZU D-Max Crew Cab</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.19753086419753</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.85185185185185</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.8395061728395</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.641975308641975</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.469135802469136</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Audi A3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.807228915662651</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.28915662650602</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.30120481927711</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.68674698795181</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.65060240963855</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.65060240963855</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.614457831325301</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sheet Name</t>
+          <t>Car Names</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
@@ -420,6 +420,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2020_cars_combined.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
